--- a/Diseño de las tablas.xlsx
+++ b/Diseño de las tablas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -147,9 +147,6 @@
     <t>users</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
     <t>telephone</t>
   </si>
   <si>
@@ -213,9 +210,6 @@
     <t>Long</t>
   </si>
   <si>
-    <t>Programming</t>
-  </si>
-  <si>
     <t>airplane</t>
   </si>
   <si>
@@ -241,6 +235,12 @@
   </si>
   <si>
     <t>History sessions</t>
+  </si>
+  <si>
+    <t>identification</t>
+  </si>
+  <si>
+    <t>programming</t>
   </si>
 </sst>
 </file>
@@ -303,12 +303,6 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -316,6 +310,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -612,30 +612,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C3:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="3" spans="3:7">
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="G3" s="5"/>
     </row>
     <row r="4" spans="3:7" ht="15.75">
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="5"/>
       <c r="E4" t="s">
         <v>42</v>
       </c>
       <c r="F4" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="2" t="s">
         <v>39</v>
       </c>
     </row>
@@ -643,27 +643,27 @@
       <c r="C5" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F5" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="6" spans="3:7" ht="15.75">
       <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>48</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="2" t="s">
         <v>41</v>
       </c>
     </row>
@@ -671,32 +671,32 @@
       <c r="C7" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>43</v>
+      <c r="D7" s="2" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="3:7" ht="15.75">
       <c r="C8" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>44</v>
+      <c r="D8" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="3:7" ht="15.75">
       <c r="C9" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>45</v>
+      <c r="D9" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="3:7" ht="15.75">
       <c r="C10" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>46</v>
+      <c r="D10" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="3:7">
@@ -704,7 +704,7 @@
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="3:7">
@@ -712,32 +712,32 @@
         <v>6</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="3:7">
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="2"/>
+      <c r="G13" s="5"/>
     </row>
     <row r="14" spans="3:7">
       <c r="F14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="3:7">
       <c r="D15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F15" t="s">
         <v>12</v>
       </c>
       <c r="G15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="3:7">
@@ -745,7 +745,7 @@
         <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="6:7">
@@ -771,20 +771,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="D3:L28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="3" spans="4:10">
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
       <c r="H3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="4:10">
@@ -799,32 +799,32 @@
       <c r="E5" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>48</v>
+      <c r="F5" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="4:10" ht="15.75">
       <c r="E6" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>43</v>
+      <c r="F6" s="2" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="4:10" ht="15.75">
       <c r="E7" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>44</v>
+      <c r="F7" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="4:10" ht="15.75">
       <c r="E8" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>45</v>
+      <c r="F8" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="4:10">
@@ -832,89 +832,89 @@
         <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="4:10">
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="2"/>
+      <c r="E12" s="5"/>
       <c r="F12" t="s">
-        <v>61</v>
-      </c>
-      <c r="H12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="3"/>
+      <c r="I12" s="6"/>
       <c r="J12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="4:10" ht="15.75">
       <c r="D13" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>56</v>
+      <c r="E13" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="H13" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="4" t="s">
-        <v>63</v>
+      <c r="I13" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="4:10" ht="15.75">
       <c r="D14" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>57</v>
+      <c r="E14" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="H14" t="s">
         <v>22</v>
       </c>
-      <c r="I14" s="4" t="s">
-        <v>64</v>
+      <c r="I14" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="4:10" ht="15.75">
       <c r="D15" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>58</v>
+      <c r="E15" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="H15" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="4" t="s">
-        <v>60</v>
+      <c r="I15" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="4:10" ht="15.75">
       <c r="D16" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>59</v>
+      <c r="E16" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="4:12" ht="15.75">
       <c r="D17" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>60</v>
+      <c r="E17" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="4:12">
-      <c r="J18" s="2" t="s">
+      <c r="J18" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
     </row>
     <row r="19" spans="4:12">
       <c r="J19" t="s">
@@ -922,13 +922,13 @@
       </c>
     </row>
     <row r="20" spans="4:12">
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
       <c r="H20" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="J20" t="s">
         <v>37</v>
@@ -939,7 +939,7 @@
         <v>31</v>
       </c>
       <c r="F21" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J21" t="s">
         <v>38</v>
@@ -949,8 +949,8 @@
       <c r="E22" t="s">
         <v>32</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>62</v>
+      <c r="F22" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="4:12">
@@ -958,7 +958,7 @@
         <v>24</v>
       </c>
       <c r="F23" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="4:12">
@@ -966,7 +966,7 @@
         <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="4:12">
@@ -974,16 +974,16 @@
         <v>13</v>
       </c>
       <c r="F25" t="s">
-        <v>53</v>
-      </c>
-      <c r="G25" s="6"/>
+        <v>52</v>
+      </c>
+      <c r="G25" s="4"/>
     </row>
     <row r="26" spans="4:12">
       <c r="E26" t="s">
         <v>34</v>
       </c>
       <c r="F26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="4:12">
@@ -991,15 +991,15 @@
         <v>33</v>
       </c>
       <c r="F27" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="4:12">
       <c r="E28" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F28" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
